--- a/YsProject/Excels/Selenium.xlsx
+++ b/YsProject/Excels/Selenium.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
-    <sheet name="V01" sheetId="3" r:id="rId2"/>
+    <sheet name="V01" sheetId="4" r:id="rId2"/>
+    <sheet name="V02" sheetId="6" r:id="rId3"/>
+    <sheet name="Inof" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,17 +26,39 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dhc</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>$fullscreen全屏
+$maximize最大化</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -43,10 +67,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Xpath</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -151,10 +171,6 @@
     <t>29</t>
   </si>
   <si>
-    <t>Css</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -203,10 +219,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Event</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -227,16 +239,296 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Back</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$normal</t>
+    <t>$back</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>后退</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
-      <t>加</t>
+      <t>前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sizex</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$sizey</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$pointx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$pointy</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置窗口位置Y</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>设置窗口位置X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置窗口大小Y</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>置窗口大小X</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$fullscreen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最小化窗口</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全屏窗口(F11)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$ctrl</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$clear</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窗口位置X</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窗口位置Y</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窗口大小W</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窗口大小H</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$maximize</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>最大化窗口(不会阻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>栏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>操作命令</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>窗口</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$minimize</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>页面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>元素</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>查找</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$css</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$xpath</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$forward</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$refresh</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$shift</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>启</t>
     </r>
     <r>
       <rPr>
@@ -248,13 +540,65 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>载</t>
+      <t>动URL</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>$id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id：su</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$enter</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>单击</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回车</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>清除</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Selenum</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$name：ks-component369</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
-      <t>(默</t>
+      <t>【搜索】按</t>
     </r>
     <r>
       <rPr>
@@ -265,99 +609,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>认</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) 直到 返回 load 事件</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$eager</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>直至返回 DOMContentLoaded 事件</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$none</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>仅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>等待至初始</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>面下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>完成</t>
+      <t>钮</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -366,7 +618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +676,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -439,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -475,13 +761,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,14 +835,48 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,294 +1154,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1080,124 +1411,123 @@
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
       <c r="I3" s="4"/>
@@ -1206,17 +1536,23 @@
       <c r="L3" s="5"/>
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
       <c r="I4" s="4"/>
@@ -1225,17 +1561,15 @@
       <c r="L4" s="5"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
@@ -1244,17 +1578,15 @@
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
@@ -1263,17 +1595,15 @@
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -1282,17 +1612,15 @@
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1301,17 +1629,15 @@
       <c r="L8" s="5"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
       <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="4"/>
@@ -1320,17 +1646,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="4"/>
       <c r="H10" s="5"/>
       <c r="I10" s="4"/>
@@ -1339,17 +1663,15 @@
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4"/>
       <c r="H11" s="5"/>
       <c r="I11" s="4"/>
@@ -1358,17 +1680,15 @@
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
       <c r="I12" s="4"/>
@@ -1377,17 +1697,15 @@
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
       <c r="I13" s="4"/>
@@ -1396,17 +1714,15 @@
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="4"/>
@@ -1415,17 +1731,15 @@
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
       <c r="I15" s="4"/>
@@ -1434,17 +1748,15 @@
       <c r="L15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
       <c r="I16" s="4"/>
@@ -1453,17 +1765,15 @@
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="4"/>
@@ -1472,17 +1782,15 @@
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
       <c r="I18" s="4"/>
@@ -1491,17 +1799,15 @@
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
       <c r="I19" s="4"/>
@@ -1510,17 +1816,15 @@
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
       <c r="I20" s="4"/>
@@ -1529,17 +1833,15 @@
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="4"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4"/>
@@ -1548,17 +1850,15 @@
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="4"/>
@@ -1567,17 +1867,15 @@
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
       <c r="I23" s="4"/>
@@ -1586,17 +1884,15 @@
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="4"/>
@@ -1605,17 +1901,15 @@
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="4"/>
@@ -1624,17 +1918,15 @@
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="5"/>
       <c r="I26" s="4"/>
@@ -1643,17 +1935,15 @@
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="4"/>
@@ -1662,17 +1952,15 @@
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
       <c r="I28" s="4"/>
@@ -1681,17 +1969,15 @@
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
@@ -1700,17 +1986,15 @@
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
@@ -1719,17 +2003,15 @@
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
@@ -1738,21 +2020,1088 @@
       <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="2.375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="2.125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="1.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="P2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="P3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="P4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="P5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="P6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="P7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="P8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="P9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YsProject/Excels/Selenium.xlsx
+++ b/YsProject/Excels/Selenium.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\YsProject\YsProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\YsProject\YsProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C6C39-7045-4667-AEEC-BE2482584950}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>dhc</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3"/>
@@ -199,10 +200,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -224,10 +221,6 @@
   </si>
   <si>
     <t>Event</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -254,7 +247,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -288,7 +281,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -299,7 +292,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -317,7 +310,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -328,7 +321,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -342,7 +335,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -353,7 +346,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -418,7 +411,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -429,7 +422,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -440,7 +433,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -451,7 +444,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -485,17 +478,13 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>查找</t>
     </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Key</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -535,7 +524,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -549,18 +538,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$id：su</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$enter</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -569,10 +546,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$click</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>单击</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -590,10 +563,6 @@
   </si>
   <si>
     <t>Selenum</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$name：ks-component369</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -604,7 +573,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -613,16 +582,60 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>$pic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:su</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$name:ks-component369</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:sele</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$select:ABC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$select</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$selectvalue</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>选择下拉框(内容)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>选择下拉框(0开始index)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>截图</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -630,7 +643,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -639,14 +652,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -654,7 +667,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -662,7 +675,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -671,7 +684,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -680,7 +693,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -688,7 +701,7 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -697,7 +710,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -725,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -807,6 +820,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -816,7 +872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,32 +894,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -874,10 +912,37 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1154,66 +1219,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C10" sqref="C10:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1221,19 +1286,19 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -1241,17 +1306,17 @@
         <v>40</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1259,140 +1324,108 @@
         <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
   </sheetData>
@@ -1416,117 +1449,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="B3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -1537,21 +1568,21 @@
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>102</v>
+      <c r="B4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -1562,14 +1593,16 @@
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="4"/>
@@ -1579,14 +1612,18 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="4"/>
@@ -1596,14 +1633,16 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="4"/>
@@ -1613,12 +1652,12 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14">
+      <c r="A8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
       <c r="G8" s="4"/>
@@ -1630,12 +1669,12 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:14" ht="11.25" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" s="4"/>
@@ -1647,12 +1686,12 @@
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:14" ht="12" customHeight="1">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4"/>
@@ -1664,12 +1703,12 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
@@ -1681,12 +1720,12 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
       <c r="G12" s="4"/>
@@ -1698,12 +1737,12 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4"/>
@@ -1715,12 +1754,12 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
       <c r="G14" s="4"/>
@@ -1732,12 +1771,12 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
       <c r="G15" s="4"/>
@@ -1749,12 +1788,12 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
       <c r="G16" s="4"/>
@@ -1766,12 +1805,12 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:14">
+      <c r="A17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
       <c r="G17" s="4"/>
@@ -1783,12 +1822,12 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
@@ -1800,12 +1839,12 @@
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:14">
+      <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
       <c r="G19" s="4"/>
@@ -1817,12 +1856,12 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:14">
+      <c r="A20" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="4"/>
@@ -1834,12 +1873,12 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
       <c r="G21" s="4"/>
@@ -1851,12 +1890,12 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -1868,12 +1907,12 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="4"/>
@@ -1885,12 +1924,12 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:14">
+      <c r="A24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="4"/>
@@ -1902,12 +1941,12 @@
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:14">
+      <c r="A25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
       <c r="G25" s="4"/>
@@ -1919,12 +1958,12 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:14">
+      <c r="A26" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
@@ -1936,12 +1975,12 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
@@ -1953,12 +1992,12 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:14">
+      <c r="A28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -1970,12 +2009,12 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:14">
+      <c r="A29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -1987,12 +2026,12 @@
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="4"/>
@@ -2003,23 +2042,6 @@
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2043,117 +2065,115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -2164,21 +2184,17 @@
       <c r="M3" s="4"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -2189,7 +2205,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -2206,7 +2222,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2223,7 +2239,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -2240,7 +2256,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -2257,7 +2273,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="11.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2290,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="11.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -2291,7 +2307,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="12" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -2308,7 +2324,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -2325,7 +2341,7 @@
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -2342,7 +2358,7 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2375,7 @@
       <c r="M14" s="4"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -2376,7 +2392,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -2393,7 +2409,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +2426,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -2427,7 +2443,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -2444,7 +2460,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +2477,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -2478,7 +2494,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2495,7 +2511,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -2512,7 +2528,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
@@ -2529,7 +2545,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -2546,7 +2562,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -2563,7 +2579,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -2580,7 +2596,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
@@ -2597,7 +2613,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -2614,7 +2630,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -2631,7 +2647,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -2670,204 +2686,210 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="2.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="2.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.109375" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="1.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.88671875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="14"/>
+    <row r="1" spans="1:18">
+      <c r="A1" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="15"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="15"/>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="P2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="P2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="2"/>
       <c r="P3" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
       <c r="P4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2"/>
       <c r="P5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="L6" s="2"/>
       <c r="P6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
       <c r="P7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18">
       <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2875,14 +2897,16 @@
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
       <c r="P8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2891,14 +2915,18 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="P9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C10" s="2"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2908,10 +2936,10 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
@@ -2923,10 +2951,10 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
@@ -2938,10 +2966,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2951,12 +2983,16 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2966,7 +3002,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2981,7 +3017,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2996,7 +3032,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3011,7 +3047,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3026,7 +3062,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3041,7 +3077,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3056,43 +3092,43 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="15:15">
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="15:15">
       <c r="O34" s="2"/>
     </row>
   </sheetData>

--- a/YsProject/Excels/Selenium.xlsx
+++ b/YsProject/Excels/Selenium.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\YsProject\YsProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\YsProject\YsProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C6C39-7045-4667-AEEC-BE2482584950}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -27,34 +26,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>dhc</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>$fullscreen全屏
-$maximize最大化</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3"/>
@@ -229,10 +202,6 @@
   </si>
   <si>
     <t>Back</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$back</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -247,7 +216,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -281,7 +250,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -292,7 +261,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -310,7 +279,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -321,7 +290,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -335,7 +304,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -346,7 +315,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -356,10 +325,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$fullscreen</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>最小化窗口</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -372,35 +337,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$ctrl</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$clear</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>百度</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窗口位置X</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窗口位置Y</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窗口大小W</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>窗口大小H</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$maximize</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -411,7 +348,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -422,7 +359,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -433,7 +370,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -444,7 +381,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -459,10 +396,6 @@
   </si>
   <si>
     <t>窗口</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$minimize</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -478,7 +411,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -496,23 +429,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$css</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$xpath</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$forward</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$refresh</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$shift</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -524,7 +441,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -534,35 +451,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$enter</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$click</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>单击</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>回车</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>清除</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Selenum</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -573,7 +466,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -587,14 +480,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$id:su</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$name:ks-component369</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>$id:sele</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -624,18 +509,162 @@
   </si>
   <si>
     <t>事件</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>https://localhost:44389/</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:loginId</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id:orgmTable</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属組織</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$clear</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$pic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>minako.fukazawa</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>table选择</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>失焦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$table：0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$css</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$pic</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$click</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$clear</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$lostfocuse</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$refresh</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$back</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$forward</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$fullscreen</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$maximize</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>$minimize</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>table</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -643,7 +672,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -652,14 +681,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -667,7 +696,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -675,7 +704,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -684,7 +713,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -693,7 +722,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -701,7 +730,7 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -710,18 +739,10 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -872,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,13 +918,13 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,6 +934,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -930,19 +954,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1219,158 +1237,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="1" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4">
+    <row r="4" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>41</v>
@@ -1380,106 +1420,57 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -1489,570 +1480,627 @@
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="E2" s="3" t="s">
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="F3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="F4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="G4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="12" customHeight="1">
-      <c r="A10" s="20" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="20" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="20" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="20" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="20" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="20" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="20" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="20" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="20" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="20" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="20" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="20" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="20" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="20" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="20" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="20" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="20" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="20" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="20" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="20" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="9">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2065,37 +2113,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2105,575 +2153,611 @@
       <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="13"/>
+      <c r="L1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="13"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14">
+        <v>77</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="G4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="D5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="D6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="11.25" customHeight="1">
+      <c r="D8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="11.25" customHeight="1">
+      <c r="D9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="12" customHeight="1">
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="D13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="D14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="D15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="D16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="9">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,174 +2770,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.375" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="2.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="2.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.125" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="1.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="15"/>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="16"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="16"/>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="P2" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="P2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="I3" s="2"/>
       <c r="L3" s="2"/>
       <c r="P3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2"/>
       <c r="L4" s="2"/>
       <c r="P4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2"/>
       <c r="P5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2861,33 +2941,37 @@
       <c r="I6" s="2"/>
       <c r="L6" s="2"/>
       <c r="P6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
       <c r="P7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C8" s="2"/>
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
@@ -2897,13 +2981,13 @@
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
       <c r="P8" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C9" s="2"/>
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
@@ -2915,16 +2999,16 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="P9" s="4" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
@@ -2936,11 +3020,9 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2951,11 +3033,9 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="6"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2966,13 +3046,13 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2983,15 +3063,15 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3002,12 +3082,16 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3017,7 +3101,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3032,7 +3116,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3047,7 +3131,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3062,7 +3146,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3077,7 +3161,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3092,43 +3176,49 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="15:15">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="15:15">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O34" s="2"/>
     </row>
   </sheetData>

--- a/YsProject/Excels/Selenium.xlsx
+++ b/YsProject/Excels/Selenium.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>Name</t>
     <phoneticPr fontId="3"/>
@@ -653,6 +653,14 @@
   </si>
   <si>
     <t>table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Event</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -927,6 +935,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -953,9 +964,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1243,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1263,12 +1271,12 @@
         <v>74</v>
       </c>
       <c r="B1" s="10"/>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -1445,9 +1453,9 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1471,70 +1479,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="F2" s="3" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>47</v>
@@ -2144,44 +2152,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2800,48 +2808,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="16"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
